--- a/vgp_database/Robinson_Antincline_intrusions.xlsx
+++ b/vgp_database/Robinson_Antincline_intrusions.xlsx
@@ -105,10 +105,10 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2.1</t>
+    <t>R2a</t>
   </si>
   <si>
-    <t>R2.2</t>
+    <t>R2b</t>
   </si>
   <si>
     <t>R3</t>
@@ -117,10 +117,10 @@
     <t>R4</t>
   </si>
   <si>
-    <t>R5.1</t>
+    <t>R5a</t>
   </si>
   <si>
-    <t>R5.2</t>
+    <t>R5b</t>
   </si>
   <si>
     <t>R6</t>
@@ -717,8 +717,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -751,7 +765,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
